--- a/biology/Botanique/Pomme_Bondon/Pomme_Bondon.xlsx
+++ b/biology/Botanique/Pomme_Bondon/Pomme_Bondon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Bondon est une variété de pommes, fréquemment cultivée en Touraine et dans le département de l'Indre.
 </t>
@@ -511,10 +523,12 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'origine de cette variété locale est inconnue ; elle est appréciée en Touraine dans la région de Loches et dans le Berry, dans le nord de l'Indre[1].
-Son nom serait lié à sa forme rappelant une bonde de tonneau[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'origine de cette variété locale est inconnue ; elle est appréciée en Touraine dans la région de Loches et dans le Berry, dans le nord de l'Indre.
+Son nom serait lié à sa forme rappelant une bonde de tonneau.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Présentation générale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son époque de consommation varie de la deuxième semaine de décembre à la fin mars.
 </t>
